--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1873422.354082844</v>
+        <v>1981160.41189738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797152</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5458461.438028325</v>
+        <v>5872555.623773517</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>419.9553339851441</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -671,10 +673,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -716,13 +718,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>275.0492858449804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>86.91406253606236</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>144.1266108076342</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>61.37033924555255</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>229.0753070626126</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1105,13 +1107,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>61.23284287475814</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>168.15899720367</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,13 +1144,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.7404152131624</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V10" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>174.2339283090447</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>19.66484339937357</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>61.43755362246824</v>
       </c>
       <c r="D13" t="n">
-        <v>140.5689102989816</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,13 +1609,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>274.1899578830765</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.264602967362511</v>
       </c>
       <c r="I16" t="n">
-        <v>28.46824604904438</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2002,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978581</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>83.4266154587245</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>96.68259506970313</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>46.24876144511806</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>146.3752975271702</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790288</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>46.24876144511806</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2716,16 +2718,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>52.79556056591076</v>
       </c>
       <c r="E28" t="n">
-        <v>119.8634463900534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>7.264602967362117</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684289</v>
       </c>
     </row>
     <row r="32">
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.5004364948334</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3430,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900534</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.30617524481251</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>184.7519140116473</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>386.3049095281191</v>
       </c>
       <c r="H41" t="n">
-        <v>64.20667819325493</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3946,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193516</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>19.80087630034418</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>95.60618148730734</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>393.1243189284938</v>
       </c>
     </row>
     <row r="45">
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>31.28831241118253</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551393</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>978.7890572316417</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C2" t="n">
-        <v>944.6869884554691</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D2" t="n">
-        <v>912.8176076703177</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4364,16 +4366,16 @@
         <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1829.291861345744</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.476810797181</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.334347376492</v>
+        <v>2091.202312876472</v>
       </c>
       <c r="Y2" t="n">
-        <v>1001.048223676145</v>
+        <v>1682.916189176125</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4421,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q3" t="n">
         <v>1716.640978007438</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>762.8950539462403</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>762.8950539462403</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>593.1370501969775</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.133343351119</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652275</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>981.4316298953097</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C5" t="n">
-        <v>543.2891570787331</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D5" t="n">
-        <v>511.4197762935816</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2047.406523133708</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.017324080564</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.731200380218</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4658,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
+        <v>53.40121652862856</v>
+      </c>
+      <c r="O6" t="n">
         <v>397.8892067392439</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.5813843420327</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
         <v>794.0196728252577</v>
@@ -4753,22 +4755,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.237832827208</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.211428413499</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1385.819673746912</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.40000306102</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316417</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554691</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703177</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4808,19 +4810,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2451.1311140949</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2191.908811411917</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1829.291861345744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1424.436406756777</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1005.293943336088</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.048223676145</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4892,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>394.9608689238808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1055.800923465659</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1055.800923465659</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
         <v>1716.640978007438</v>
@@ -4987,13 +4989,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
         <v>2069.115825625685</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>668.4468408340261</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>492.4529738551931</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>56.54318902963762</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>56.54318902963762</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>56.54318902963762</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.54318902963762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M11" t="n">
-        <v>56.12639965677762</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N11" t="n">
-        <v>750.6905954094007</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1445.254791162024</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2139.818986914646</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2686.317772873241</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.030453028937</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2327.030453028937</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>1922.17499843997</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>1503.032535019281</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1094.746411318934</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O12" t="n">
-        <v>750.6905954094007</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.635416526657</v>
+        <v>2951.739990881857</v>
       </c>
       <c r="C13" t="n">
-        <v>850.0737050098816</v>
+        <v>2889.681855909666</v>
       </c>
       <c r="D13" t="n">
-        <v>708.0849067280819</v>
+        <v>2723.803863111189</v>
       </c>
       <c r="E13" t="n">
-        <v>538.3269029788192</v>
+        <v>2554.045859361926</v>
       </c>
       <c r="F13" t="n">
-        <v>361.6198489405754</v>
+        <v>2377.338805323683</v>
       </c>
       <c r="G13" t="n">
-        <v>196.0285739664031</v>
+        <v>2211.74753034951</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677762</v>
+        <v>2071.845356039885</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>2071.845356039885</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>2158.425041204574</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>2433.183495775711</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>2851.393377543671</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>3310.877244724584</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>3753.136047882229</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>4172.80529710801</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>4520.312191078352</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>4667.087144648056</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>4507.845775946053</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>4261.966329524508</v>
       </c>
       <c r="U13" t="n">
-        <v>2246.247373141401</v>
+        <v>3983.533328777613</v>
       </c>
       <c r="V13" t="n">
-        <v>1959.291865011832</v>
+        <v>3696.577820648044</v>
       </c>
       <c r="W13" t="n">
-        <v>1687.265460598123</v>
+        <v>3424.551416234336</v>
       </c>
       <c r="X13" t="n">
-        <v>1441.873705931536</v>
+        <v>3179.159661567748</v>
       </c>
       <c r="Y13" t="n">
-        <v>1214.454035245644</v>
+        <v>2951.739990881857</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.260998867111</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1321.301445449862</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>885.391660624306</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>885.391660624306</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677762</v>
+        <v>1007.31473861678</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677762</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094007</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>1445.254791162024</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2139.818986914646</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2686.317772873241</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.703032772708</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>2024.560569352018</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2024.560569352018</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677762</v>
+        <v>144.5550952601436</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677762</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>750.6905954094007</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1445.254791162024</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>427.1805327591376</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="F16" t="n">
-        <v>250.4734787208938</v>
+        <v>266.6993570883417</v>
       </c>
       <c r="G16" t="n">
-        <v>84.88220374672144</v>
+        <v>101.1080821141693</v>
       </c>
       <c r="H16" t="n">
-        <v>84.88220374672144</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5603,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N18" t="n">
-        <v>210.9600532992111</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
         <v>1224.761663117513</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>451.897152078511</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>275.1900980402705</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5716,7 +5718,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,37 +5758,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W22" t="n">
-        <v>1748.411126173566</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.557290287536</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,16 +6077,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6226,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6312,19 +6314,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>414.500552094942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>3462.891420506061</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>3290.329708989286</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E28" t="n">
-        <v>330.8229638057298</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>4399.547868991236</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>4127.521464577528</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>3882.12970991094</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>3654.710039225049</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6463,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6546,22 +6548,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6664,7 +6666,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="32">
@@ -6704,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6789,13 +6791,13 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6937,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7078,13 +7080,13 @@
         <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F37" t="n">
-        <v>282.1391483292483</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7166,37 +7168,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>3449.802252060173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>3449.802252060173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L39" t="n">
-        <v>3449.802252060173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M39" t="n">
-        <v>3635.407130333368</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N39" t="n">
-        <v>3635.407130333368</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O39" t="n">
-        <v>3635.407130333368</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2351.643165215688</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2073.210164468793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.254656339223</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1514.228251925515</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.836497258927</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.416826573035</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1392.480780571871</v>
+        <v>2509.218454644459</v>
       </c>
       <c r="C41" t="n">
-        <v>1392.480780571871</v>
+        <v>2071.075981827883</v>
       </c>
       <c r="D41" t="n">
-        <v>956.5709957463159</v>
+        <v>1635.166197002327</v>
       </c>
       <c r="E41" t="n">
-        <v>522.796250904611</v>
+        <v>1201.391452160622</v>
       </c>
       <c r="F41" t="n">
-        <v>522.796250904611</v>
+        <v>773.5240225698299</v>
       </c>
       <c r="G41" t="n">
-        <v>121.3984195278749</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862318</v>
+        <v>1686.072621982323</v>
       </c>
       <c r="N41" t="n">
-        <v>1185.945282862318</v>
+        <v>2811.80360541877</v>
       </c>
       <c r="O41" t="n">
-        <v>1880.509478614941</v>
+        <v>3791.983271989076</v>
       </c>
       <c r="P41" t="n">
-        <v>2575.073674367564</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.25275571192</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>2223.635805645746</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>1818.780351056779</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X41" t="n">
-        <v>1818.780351056779</v>
+        <v>3343.804148829714</v>
       </c>
       <c r="Y41" t="n">
-        <v>1818.780351056779</v>
+        <v>2935.518025129367</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1649.251966351365</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>1542.795505188007</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>1353.584801661514</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>1143.080221360072</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>1863.708090273153</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M42" t="n">
-        <v>1863.708090273153</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N42" t="n">
-        <v>2265.581044206805</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O42" t="n">
-        <v>2265.581044206805</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>2265.581044206805</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>2806.319982838881</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>2806.319982838881</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>2742.864545287264</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>2436.349354617834</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>1770.555867431128</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.5932852944866</v>
+        <v>867.3348106469373</v>
       </c>
       <c r="C43" t="n">
-        <v>797.0315737777115</v>
+        <v>694.7730991301622</v>
       </c>
       <c r="D43" t="n">
-        <v>631.1535809792342</v>
+        <v>528.8951063316849</v>
       </c>
       <c r="E43" t="n">
-        <v>461.3955772299715</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F43" t="n">
-        <v>284.6885231917278</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2615.259214430121</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2369.379768008576</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2090.946767261682</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1803.991259132112</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1531.964854718404</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.831574699366</v>
+        <v>1286.573100051816</v>
       </c>
       <c r="Y43" t="n">
-        <v>1161.411904013474</v>
+        <v>1059.153429365924</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>442.245244078651</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>442.245244078651</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>345.6733435864214</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>345.6733435864214</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>709.8936300137286</v>
       </c>
       <c r="M44" t="n">
-        <v>1565.257001127663</v>
+        <v>1866.941465224279</v>
       </c>
       <c r="N44" t="n">
-        <v>1565.257001127663</v>
+        <v>2992.672448660726</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127663</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880286</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.445806339735</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.828856273562</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.973401684595</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X44" t="n">
-        <v>1276.830938263905</v>
+        <v>3343.804148829714</v>
       </c>
       <c r="Y44" t="n">
-        <v>868.5448145635588</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K45" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L45" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M45" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N45" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O45" t="n">
-        <v>406.7483977834476</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>958.4775062304152</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>785.9157947136401</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>620.0378019151628</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>450.2797981659001</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2460.522463592054</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2182.08946284516</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1895.13395471559</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1623.107550301882</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1377.715795635294</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1150.296124949402</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>466.3240083888435</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>347.9676668794094</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8456,22 +8458,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P8" t="n">
-        <v>469.682203560008</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8696,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>121.2143535006462</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P12" t="n">
-        <v>313.9028777775459</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>922.7723629271979</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>51.29797569827269</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>276.8801716904675</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10194,25 +10196,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10437,16 +10439,16 @@
         <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>353.5584929242559</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.71943809925233</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>405.9322767006588</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>622.3470007018939</v>
       </c>
       <c r="M44" t="n">
-        <v>383.1431497629746</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>259.5271197793662</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>109.3985407791391</v>
       </c>
       <c r="D13" t="n">
-        <v>23.65030257151091</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>159.5710902053344</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23549,19 +23551,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>131.2385495991667</v>
       </c>
       <c r="I16" t="n">
-        <v>59.30510368402703</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>80.50874676570611</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>128.4628789093297</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.56253959275142</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>111.4236523045818</v>
       </c>
       <c r="E28" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>26.33579611060392</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>5.148518520149906</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>48.19697732171672</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>73.6291869796181</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>58.66873794568201</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>11.0789435348496</v>
       </c>
       <c r="H41" t="n">
-        <v>222.032174817961</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>84.63380825304814</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>223.1369608195775</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>335.9445054899926</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>11.07894353484926</v>
       </c>
     </row>
     <row r="45">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>212.1323395461467</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339996.3836960023</v>
+        <v>481719.6842138357</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>339996.3836960022</v>
+        <v>481719.6842138356</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513686.1445339187</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>339996.3836960022</v>
+        <v>481719.6842138356</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>339996.3836960022</v>
+        <v>481719.6842138357</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>415514.1729150667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>415514.1729150667</v>
+      </c>
+      <c r="D2" t="n">
         <v>415514.1729150665</v>
       </c>
-      <c r="C2" t="n">
-        <v>415514.1729150666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>415514.1729150668</v>
-      </c>
       <c r="E2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161258</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.6277064482</v>
       </c>
       <c r="H2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26352,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045615</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340753</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
@@ -26439,25 +26441,25 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782602</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782602</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085237</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4097.543551013354</v>
+        <v>4097.543551013514</v>
       </c>
       <c r="C6" t="n">
         <v>227797.2421350583</v>
       </c>
       <c r="D6" t="n">
-        <v>227797.2421350585</v>
+        <v>227797.2421350582</v>
       </c>
       <c r="E6" t="n">
-        <v>216892.7835918663</v>
+        <v>160218.2062773405</v>
       </c>
       <c r="F6" t="n">
-        <v>227063.7801923224</v>
+        <v>310883.9598490885</v>
       </c>
       <c r="G6" t="n">
-        <v>171730.5797637637</v>
+        <v>300700.2475372653</v>
       </c>
       <c r="H6" t="n">
-        <v>329790.0567098729</v>
+        <v>329790.0567098728</v>
       </c>
       <c r="I6" t="n">
         <v>329790.0567098728</v>
       </c>
       <c r="J6" t="n">
-        <v>155138.7079921668</v>
+        <v>155138.7079921667</v>
       </c>
       <c r="K6" t="n">
         <v>329790.0567098728</v>
@@ -26552,16 +26554,16 @@
         <v>329790.0567098728</v>
       </c>
       <c r="M6" t="n">
-        <v>321300.9750065322</v>
+        <v>204038.9683741821</v>
       </c>
       <c r="N6" t="n">
         <v>329790.0567098728</v>
       </c>
       <c r="O6" t="n">
-        <v>227063.7801923224</v>
+        <v>310883.9598490884</v>
       </c>
       <c r="P6" t="n">
-        <v>227063.7801923224</v>
+        <v>310883.9598490884</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>13.80571410326684</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>83.94149472053135</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.81337269022714</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>185.8757317238698</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8531101735157</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>253.8775775763887</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>1.126139642529353</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28731,7 +28733,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29025,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>466.3240083888435</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>347.9676668794094</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35176,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P8" t="n">
-        <v>469.682203560008</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>121.2143535006462</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P12" t="n">
-        <v>313.9028777775459</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080414</v>
@@ -35580,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>922.7723629271979</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>51.29797569827269</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>276.8801716904675</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37157,16 +37159,16 @@
         <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>353.5584929242559</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.71943809925233</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>405.9322767006588</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>622.3470007018939</v>
       </c>
       <c r="M44" t="n">
-        <v>383.1431497629746</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1981160.41189738</v>
+        <v>1980554.324268482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797152</v>
+        <v>606553.2040797147</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5872555.623773517</v>
+        <v>5872555.623773516</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>419.9553339851441</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>387.2118024423816</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.91406253606236</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -898,16 +898,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>61.37033924555255</v>
+        <v>279.6495155803755</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -916,7 +916,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,7 +958,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1104,16 +1104,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.15899720367</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1147,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>19.66484339937357</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>61.43755362246824</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>59.4124420970251</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>145.8387674910519</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>7.264602967362511</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2061,16 +2061,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555215</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.68259506970313</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>46.24876144511806</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253767</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.24876144511806</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>52.79556056591076</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.8096778684289</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5004364948334</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>119.8634463900534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>8.909245336631695</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>386.3049095281191</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.01514676193516</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>289.6029663988438</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>393.1243189284938</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>82.14201637551393</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1256.616618691218</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C2" t="n">
-        <v>832.4193116355167</v>
+        <v>902.126019690804</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503653</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4339,10 +4339,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.304372256757</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X2" t="n">
-        <v>2091.202312876472</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y2" t="n">
-        <v>1682.916189176125</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="3">
@@ -4421,16 +4421,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>515.0619848335836</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>515.0619848335836</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4524,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1693.062784852648</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1447.671030186061</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1220.251359500169</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1298.040072665448</v>
+        <v>1922.147703832814</v>
       </c>
       <c r="C5" t="n">
-        <v>859.8975998488716</v>
+        <v>1888.045635056641</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9073581866973</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>768.1730173853965</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4576,19 +4576,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.544958769894</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.299239109952</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4752,13 +4752,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>2210.968635687902</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
         <v>2069.115825625685</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.919211788425</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>829.7767389718487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055493</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238916</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
@@ -5050,43 +5050,43 @@
         <v>93.77009931885368</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.631590390883</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.78586499956</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661436</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>279.3749775920493</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2951.739990881857</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="C13" t="n">
-        <v>2889.681855909666</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>2723.803863111189</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>2554.045859361926</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>2377.338805323683</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>2211.74753034951</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>2071.845356039885</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>2071.845356039885</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>2158.425041204574</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>2433.183495775711</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>2851.393377543671</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>3310.877244724584</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>3753.136047882229</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>4172.80529710801</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>4520.312191078352</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>4688.504965942684</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>4667.087144648056</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>4507.845775946053</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>4261.966329524508</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>3983.533328777613</v>
+        <v>2223.878505028704</v>
       </c>
       <c r="V13" t="n">
-        <v>3696.577820648044</v>
+        <v>1936.922996899135</v>
       </c>
       <c r="W13" t="n">
-        <v>3424.551416234336</v>
+        <v>1664.896592485426</v>
       </c>
       <c r="X13" t="n">
-        <v>3179.159661567748</v>
+        <v>1419.504837818839</v>
       </c>
       <c r="Y13" t="n">
-        <v>2951.739990881857</v>
+        <v>1192.085167132947</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
@@ -5284,46 +5284,46 @@
         <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.31473861678</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.36257382733</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>144.5550952601436</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
         <v>1099.098144071247</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>443.4064111265855</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>266.6993570883417</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>101.1080821141693</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885368</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5515,10 +5515,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
         <v>306.1208027766299</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>920.0973401405612</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354727</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066083</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.915958859548</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5910,52 +5910,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354733</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066089</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2491.545339525313</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U22" t="n">
-        <v>2213.112338778418</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>1926.156830648849</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1654.13042623514</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1408.738671568553</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1181.319000882661</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2491.545339525313</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>2213.112338778418</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1926.156830648849</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1654.13042623514</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1408.738671568553</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1181.319000882661</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3462.891420506061</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3290.329708989286</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4686.503377120805</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4399.547868991236</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4127.521464577528</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3882.12970991094</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3654.710039225049</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
         <v>1463.16863798718</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1008.757289365886</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2543.461783934675</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2543.461783934675</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7016,28 +7016,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>405.0384966383147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>405.0384966383147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0384966383147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>405.0384966383147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8229638057298</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7140,7 +7140,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2509.218454644459</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>2071.075981827883</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1635.166197002327</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.391452160622</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>773.5240225698299</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
         <v>383.3170432484974</v>
@@ -7411,22 +7411,22 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>1686.072621982323</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N41" t="n">
-        <v>2811.80360541877</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3791.983271989076</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
         <v>4142.00617998409</v>
@@ -7450,13 +7450,13 @@
         <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3762.946612250403</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>3343.804148829714</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2935.518025129367</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
         <v>1099.098144071247</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>867.3348106469373</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>694.7730991301622</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>528.8951063316849</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1371025824221</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>182.4300485441784</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885368</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2615.259214430121</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2369.379768008576</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.946767261682</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1803.991259132112</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1531.964854718404</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1286.573100051816</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1059.153429365924</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7654,43 +7654,43 @@
         <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>709.8936300137286</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.941465224279</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N44" t="n">
-        <v>2992.672448660726</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3972.852115231033</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>3762.946612250403</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>3343.804148829714</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
         <v>2946.70887718477</v>
@@ -7724,25 +7724,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7830,22 +7830,22 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
         <v>1363.504425800664</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
         <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
@@ -8081,7 +8081,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>922.7723629271979</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>51.29797569827269</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>279.5090739465429</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11077,7 +11077,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>353.5584929242559</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>622.3470007018939</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11314,13 +11314,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>72.02778736463989</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>109.3985407791391</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>216.2362286424006</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>110.7913121651014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.2385495991667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>122.4480280049969</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>81.78272691404985</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.4628789093297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>81.78272691404899</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>197.1718905122112</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>111.4236523045818</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.33579611060392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>5.148518520149906</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>11.0789435348496</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>84.63380825304814</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>111.2039336442332</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.07894353484926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481719.6842138357</v>
+        <v>481719.6842138358</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481719.6842138357</v>
+        <v>481719.6842138356</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
         <v>382905.3900161258</v>
       </c>
       <c r="F2" t="n">
-        <v>382905.3900161257</v>
+        <v>382905.3900161256</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.6277064482</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26349,13 +26349,13 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="O2" t="n">
         <v>382905.3900161257</v>
       </c>
       <c r="P2" t="n">
-        <v>382905.3900161257</v>
+        <v>382905.3900161258</v>
       </c>
     </row>
     <row r="3">
@@ -26426,37 +26426,37 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="F4" t="n">
         <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.332390782602</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.332390782602</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>756.1546847085237</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="P4" t="n">
         <v>756.1546847085235</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4097.543551013514</v>
+        <v>4097.543551013412</v>
       </c>
       <c r="C6" t="n">
         <v>227797.2421350583</v>
       </c>
       <c r="D6" t="n">
-        <v>227797.2421350582</v>
+        <v>227797.2421350583</v>
       </c>
       <c r="E6" t="n">
-        <v>160218.2062773405</v>
+        <v>160113.0166550859</v>
       </c>
       <c r="F6" t="n">
-        <v>310883.9598490885</v>
+        <v>310778.7702268337</v>
       </c>
       <c r="G6" t="n">
-        <v>300700.2475372653</v>
+        <v>300677.0231978825</v>
       </c>
       <c r="H6" t="n">
-        <v>329790.0567098728</v>
+        <v>329766.8323704903</v>
       </c>
       <c r="I6" t="n">
-        <v>329790.0567098728</v>
+        <v>329766.8323704902</v>
       </c>
       <c r="J6" t="n">
-        <v>155138.7079921667</v>
+        <v>155115.4836527841</v>
       </c>
       <c r="K6" t="n">
-        <v>329790.0567098728</v>
+        <v>329766.8323704902</v>
       </c>
       <c r="L6" t="n">
-        <v>329790.0567098728</v>
+        <v>329766.8323704902</v>
       </c>
       <c r="M6" t="n">
-        <v>204038.9683741821</v>
+        <v>204015.7440347995</v>
       </c>
       <c r="N6" t="n">
-        <v>329790.0567098728</v>
+        <v>329766.8323704904</v>
       </c>
       <c r="O6" t="n">
-        <v>310883.9598490884</v>
+        <v>310778.7702268338</v>
       </c>
       <c r="P6" t="n">
-        <v>310883.9598490884</v>
+        <v>310778.7702268339</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>13.80571410326684</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>44.33888453491829</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,67 +27618,67 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>370.1803477317474</v>
+        <v>151.9011713969244</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4126214791313976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.8775775763887</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
         <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
@@ -34801,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>922.7723629271979</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>51.29797569827269</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908388</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908451</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36293,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>279.5090739465429</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37797,7 +37797,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>353.5584929242559</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>622.3470007018939</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38034,13 +38034,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
